--- a/RequestCMR/config/MassUpdateTemplateAutoZA.xlsx
+++ b/RequestCMR/config/MassUpdateTemplateAutoZA.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1780" uniqueCount="717">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1779" uniqueCount="717">
   <si>
     <t>CMR. No</t>
   </si>
@@ -1403,10 +1403,10 @@
     <t>Att. Person</t>
   </si>
   <si>
+    <t>Postal Code</t>
+  </si>
+  <si>
     <t>City</t>
-  </si>
-  <si>
-    <t>Postal Code</t>
   </si>
   <si>
     <t>Landed Country</t>
@@ -8310,8 +8310,9 @@
       <formula1>1</formula1>
       <formula2>9999999999999999</formula2>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" sqref="Q2:Q2001" allowBlank="true" errorStyle="stop" showErrorMessage="true" errorTitle="Invalid Value" error="Maximum length of the value is 6 characters." showInputMessage="true" promptTitle="Note:" prompt="Maximum length of the value is 6 characters.">
-      <formula1>6</formula1>
+    <dataValidation type="whole" operator="between" sqref="Q2:Q2001" allowBlank="true" errorStyle="stop" showErrorMessage="true" errorTitle="Invalid Value" error="Please input only numbers from 1 to 999999." showInputMessage="true" promptTitle="Note:" prompt="Please input only numbers from 1 to 999999.">
+      <formula1>1</formula1>
+      <formula2>999999</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -8336,11 +8337,10 @@
     <col min="5" max="5" width="40.0" customWidth="true"/>
     <col min="6" max="6" width="40.0" customWidth="true"/>
     <col min="7" max="7" width="18.0" customWidth="true"/>
-    <col min="8" max="8" width="40.0" customWidth="true"/>
-    <col min="9" max="9" width="18.0" customWidth="true"/>
+    <col min="8" max="8" width="18.0" customWidth="true"/>
+    <col min="9" max="9" width="40.0" customWidth="true"/>
     <col min="10" max="10" width="18.0" customWidth="true"/>
     <col min="11" max="11" width="18.0" customWidth="true"/>
-    <col min="12" max="12" width="18.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -8377,9 +8377,6 @@
       <c r="K1" s="1" t="s">
         <v>715</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>452</v>
-      </c>
     </row>
     <row r="2002">
       <c r="A2002" t="s" s="3">
@@ -8388,9 +8385,9 @@
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A2002:L2002"/>
+    <mergeCell ref="A2002:K2002"/>
   </mergeCells>
-  <dataValidations count="12">
+  <dataValidations count="11">
     <dataValidation type="textLength" operator="equal" sqref="A2:A2001" allowBlank="true" errorStyle="stop" showErrorMessage="true" errorTitle="Invalid Value" error="Value should be exactly 6 characters long." showInputMessage="true" promptTitle="Note:" prompt="Value should be exactly 6 characters long.">
       <formula1>6</formula1>
     </dataValidation>
@@ -8412,11 +8409,11 @@
     <dataValidation type="textLength" operator="lessThanOrEqual" sqref="G2:G2001" allowBlank="true" errorStyle="stop" showErrorMessage="true" errorTitle="Invalid Value" error="Maximum length of the value is 30 characters." showInputMessage="true" promptTitle="Note:" prompt="Maximum length of the value is 30 characters.">
       <formula1>30</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" sqref="H2:H2001" allowBlank="true" errorStyle="stop" showErrorMessage="true" errorTitle="Invalid Value" error="Maximum length of the value is 26 characters." showInputMessage="true" promptTitle="Note:" prompt="Maximum length of the value is 26 characters.">
+    <dataValidation type="textLength" operator="lessThanOrEqual" sqref="H2:H2001" allowBlank="true" errorStyle="stop" showErrorMessage="true" errorTitle="Invalid Value" error="Maximum length of the value is 10 characters." showInputMessage="true" promptTitle="Note:" prompt="Maximum length of the value is 10 characters.">
+      <formula1>10</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" sqref="I2:I2001" allowBlank="true" errorStyle="stop" showErrorMessage="true" errorTitle="Invalid Value" error="Maximum length of the value is 26 characters." showInputMessage="true" promptTitle="Note:" prompt="Maximum length of the value is 26 characters.">
       <formula1>26</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" sqref="I2:I2001" allowBlank="true" errorStyle="stop" showErrorMessage="true" errorTitle="Invalid Value" error="Maximum length of the value is 10 characters." showInputMessage="true" promptTitle="Note:" prompt="Maximum length of the value is 10 characters.">
-      <formula1>10</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="J2:J2001" allowBlank="true" errorStyle="stop" showErrorMessage="true" errorTitle="Invalid Value" error="Please select values from the list." showInputMessage="true" promptTitle="Note:" prompt="Please select values from the list.">
       <formula1>Control!$H$2:$H$252</formula1>
@@ -8424,9 +8421,6 @@
     <dataValidation type="whole" operator="between" sqref="K2:K2001" allowBlank="true" errorStyle="stop" showErrorMessage="true" errorTitle="Invalid Value" error="Please input only numbers from 1 to 99999999999999999999999." showInputMessage="true" promptTitle="Note:" prompt="Please input only numbers from 1 to 99999999999999999999999.">
       <formula1>1</formula1>
       <formula2>99999999999999999999999</formula2>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" sqref="L2:L2001" allowBlank="true" errorStyle="stop" showErrorMessage="true" errorTitle="Invalid Value" error="Maximum length of the value is 14 characters." showInputMessage="true" promptTitle="Note:" prompt="Maximum length of the value is 14 characters.">
-      <formula1>14</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -8480,10 +8474,10 @@
         <v>460</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>462</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>461</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>463</v>
@@ -8587,10 +8581,10 @@
         <v>460</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>462</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>461</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>463</v>
@@ -8688,10 +8682,10 @@
         <v>460</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>462</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>461</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>463</v>
@@ -8794,10 +8788,10 @@
         <v>460</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>462</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>461</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>463</v>

--- a/RequestCMR/config/MassUpdateTemplateAutoZA.xlsx
+++ b/RequestCMR/config/MassUpdateTemplateAutoZA.xlsx
@@ -8284,11 +8284,10 @@
     <dataValidation type="list" sqref="G2:G2001" allowBlank="true" errorStyle="stop" showErrorMessage="true" errorTitle="Invalid Value" error="Please select values from the list." showInputMessage="true" promptTitle="Note:" prompt="Please select values from the list.">
       <formula1>Control!$C$2:$C$5</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="between" sqref="H2:H2001" allowBlank="true" errorStyle="stop" showErrorMessage="true" errorTitle="Invalid Value" error="Please input only numbers from 1 to 9999." showInputMessage="true" promptTitle="Note:" prompt="Please input only numbers from 1 to 9999.">
-      <formula1>1</formula1>
-      <formula2>9999</formula2>
+    <dataValidation type="textLength" operator="lessThanOrEqual" sqref="H2:H2001" allowBlank="true" errorStyle="stop" showErrorMessage="true" errorTitle="Invalid Value" error="Maximum length of the value is 4 characters." showInputMessage="true" promptTitle="Note:" prompt="Maximum length of the value is 4 characters.">
+      <formula1>4</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" sqref="J2:J2001" allowBlank="true" errorStyle="stop" showErrorMessage="true" errorTitle="Invalid Value" error="Maximum length of the value is 4 characters." showInputMessage="true" promptTitle="Note:" prompt="Maximum length of the value is 4 characters.">
+    <dataValidation type="textLength" operator="equal" sqref="J2:J2001" allowBlank="true" errorStyle="stop" showErrorMessage="true" errorTitle="Invalid Value" error="Value should be exactly 4 characters long." showInputMessage="true" promptTitle="Note:" prompt="Value should be exactly 4 characters long.">
       <formula1>4</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="K2:K2001" allowBlank="true" errorStyle="stop" showErrorMessage="true" errorTitle="Invalid Value" error="Please select values from the list." showInputMessage="true" promptTitle="Note:" prompt="Please select values from the list.">
@@ -8306,9 +8305,8 @@
     <dataValidation type="textLength" operator="lessThanOrEqual" sqref="O2:O2001" allowBlank="true" errorStyle="stop" showErrorMessage="true" errorTitle="Invalid Value" error="Maximum length of the value is 10 characters." showInputMessage="true" promptTitle="Note:" prompt="Maximum length of the value is 10 characters.">
       <formula1>10</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="between" sqref="P2:P2001" allowBlank="true" errorStyle="stop" showErrorMessage="true" errorTitle="Invalid Value" error="Please input only numbers from 1 to 9999999999999999." showInputMessage="true" promptTitle="Note:" prompt="Please input only numbers from 1 to 9999999999999999.">
-      <formula1>1</formula1>
-      <formula2>9999999999999999</formula2>
+    <dataValidation type="textLength" operator="lessThanOrEqual" sqref="P2:P2001" allowBlank="true" errorStyle="stop" showErrorMessage="true" errorTitle="Invalid Value" error="Maximum length of the value is 16 characters." showInputMessage="true" promptTitle="Note:" prompt="Maximum length of the value is 16 characters.">
+      <formula1>16</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="between" sqref="Q2:Q2001" allowBlank="true" errorStyle="stop" showErrorMessage="true" errorTitle="Invalid Value" error="Please input only numbers from 1 to 999999." showInputMessage="true" promptTitle="Note:" prompt="Please input only numbers from 1 to 999999.">
       <formula1>1</formula1>
